--- a/biology/Zoologie/Gus_Mills/Gus_Mills.xlsx
+++ b/biology/Zoologie/Gus_Mills/Gus_Mills.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gus Mills est un naturaliste et scientifique sud-africain spécialiste des grands carnivores. Il a notamment travaillé sur les hyènes dans le Kalahari et étudié les guépards et les lycaons dans le Parc National Kruger.
 </t>
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gus Mills travaille auprès du Conseil des Parcs Nationaux en Afrique du Sud. Il fut fondateur et directeur du "Endangered Wildlife Trust’s Carnivore Conservation Group" pendant sept ans.
 Il est le fondateur du South African Wild Dog Advisory Group. Il est l'auteur de cinq livres et de plus de 120 publications scientifiques.
-Il est Professeur à l'Université de Pretoria. Récemment retraité de SANPARKS, il a débuté, avec sa femme Margie Mills, une étude sur les guépard du Parc Transfrontalier du Kgalagadi[1].
-En 1982, il a reçu le prix Agfa Wildlife Photographic Awards[2].
+Il est Professeur à l'Université de Pretoria. Récemment retraité de SANPARKS, il a débuté, avec sa femme Margie Mills, une étude sur les guépard du Parc Transfrontalier du Kgalagadi.
+En 1982, il a reçu le prix Agfa Wildlife Photographic Awards.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>An Analysis of Bones Collected at Hyaena Breeding Dens in the Gemsbok National Parks (Mammalia: Carnivore). Annals of the Transvaal Museum. 1977.
 Diet and Foraging Behaviour of the Brown Hyaena (hyaena Brunnea, Thunberg, 1820) in the Southern Kalahari. University of Pretoria. 1977.
@@ -586,9 +602,11 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fiche du National Geographic[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fiche du National Geographic.</t>
         </is>
       </c>
     </row>
